--- a/Years - Causes + Gender Results.xlsx
+++ b/Years - Causes + Gender Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38afa0e73f251f50/Рабочий стол/data-analytics-second/Moratlity-rate-second/Barbara/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38afa0e73f251f50/Рабочий стол/Mortality-rate-second/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4DF75460589B3ACB728475575E616C5ADEDD96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4842197F-359B-4E3C-BFBE-4F2504ACEE90}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_AD4DF75460589B3ACB728475575E616C5ADEDD96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{822A08EA-1595-4C6A-810B-F5C2022767E7}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>In Japan, something appears to have transpired concerning low respiratory diseases, as they specifically underpin the surge in statistics.</t>
   </si>
   <si>
-    <t>In 2011, an earthquake transpired, where individuals predominantly succumbed to injuries. Furthermore, if we scrutinize the chart for natural disasters, this pattern becomes evident for both 1995 and 2011, as earthquakes were prevalent in both years.</t>
-  </si>
-  <si>
     <t>Among other injury types, notably poisonings and falls distinguished, for which a substantial decline in mortality was observed.</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Hypothetical explanation</t>
+  </si>
+  <si>
+    <t>In 2011, the strongest earthquake in history of Japan transpired followed by tsunami, where individuals predominantly succumbed to injuries. Furthermore, if we scrutinize the chart for natural disasters, this pattern becomes evident for both 1995 and 2011, as earthquakes were prevalent in both years.  Moreover, the Fukushima tragedy was due to the earthquake in 2011 , which also played a huge role in increase in the number of deaths from injuries.</t>
   </si>
 </sst>
 </file>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="66" zoomScaleNormal="50" workbookViewId="0">
-      <selection sqref="A1:D7"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,18 +485,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>11</v>
@@ -547,10 +547,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -559,7 +559,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
